--- a/manuscript/ESPISDataDictionary_ADRIFT.Rankin_G14M20PG00013.xlsx
+++ b/manuscript/ESPISDataDictionary_ADRIFT.Rankin_G14M20PG00013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shannon.rankin\Documents\GitHub\Adrift\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\BOEM\1. BOEM BUCKETS\1D(1) Contract Grant Monitoring Files\M20PG00013 PC-20-04 ADRIFT\Deliverables\Final Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96731FDD-B413-4F1B-9D15-77656002E6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58FDA7F-6716-43AC-A7CB-F8DBB68B2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6360" windowWidth="29040" windowHeight="15225" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="529">
   <si>
     <t xml:space="preserve">fileIdentifier </t>
   </si>
@@ -1683,12 +1683,39 @@
   <si>
     <t>This study included data from multiple acoustic surveys within the U.S. Exclusive Economic Zone off the US West Coast. The study footprint geographically represents the US EEZ off the US West Coast.</t>
   </si>
+  <si>
+    <t>858-546-7000</t>
+  </si>
+  <si>
+    <t>Bioacoustician</t>
+  </si>
+  <si>
+    <t>NSL 20-04</t>
+  </si>
+  <si>
+    <t>760 Paseo Camarillo</t>
+  </si>
+  <si>
+    <t>Camarillo</t>
+  </si>
+  <si>
+    <t>805-384-6396</t>
+  </si>
+  <si>
+    <t>desray.reeb@boem.gov</t>
+  </si>
+  <si>
+    <t>Pacific Regional Office</t>
+  </si>
+  <si>
+    <t>Biologist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,6 +1798,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1896,7 +1929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2026,6 +2059,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2045,9 +2086,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2085,9 +2126,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2120,26 +2161,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2172,26 +2196,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2371,71 +2378,71 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.26171875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.89453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="113.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="49" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:2" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>487</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" s="49" customFormat="1" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:2" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>488</v>
       </c>
       <c r="B2" s="48"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="19.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>468</v>
       </c>
@@ -2450,24 +2457,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.15625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="31.578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="45.26171875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="51.7890625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="35.26171875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="98.1015625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="75.3671875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.734375" style="14"/>
+    <col min="1" max="1" width="37.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="98.140625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="9" t="s">
         <v>461</v>
@@ -2488,7 +2495,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>166</v>
       </c>
@@ -2501,7 +2508,7 @@
       </c>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -2520,11 +2527,13 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="55" t="s">
+        <v>495</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -2537,11 +2546,13 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="58" t="s">
+        <v>496</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -2552,11 +2563,13 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="57" t="s">
+        <v>497</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2565,11 +2578,13 @@
       </c>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>498</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2578,11 +2593,13 @@
       </c>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>499</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -2591,11 +2608,13 @@
       </c>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="56">
+        <v>92037</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2604,11 +2623,13 @@
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>520</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2617,11 +2638,13 @@
       </c>
       <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>501</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -2630,11 +2653,13 @@
       </c>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>502</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>11</v>
@@ -2645,11 +2670,13 @@
       </c>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>521</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>13</v>
@@ -2660,7 +2687,7 @@
       </c>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>98</v>
       </c>
@@ -2679,7 +2706,7 @@
       </c>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>167</v>
       </c>
@@ -2692,7 +2719,7 @@
       </c>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="109.8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2738,7 @@
       </c>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2730,11 +2757,13 @@
       </c>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>522</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>141</v>
       </c>
@@ -2747,7 +2776,7 @@
       </c>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>99</v>
       </c>
@@ -2766,7 +2795,7 @@
       </c>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -2781,7 +2810,7 @@
       </c>
       <c r="G20" s="25"/>
     </row>
-    <row r="21" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -2796,7 +2825,7 @@
       </c>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -2811,7 +2840,7 @@
       </c>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -2826,12 +2855,12 @@
       </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="17">
-        <v>92116</v>
+      <c r="B24" s="56">
+        <v>92037</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="15"/>
@@ -2841,7 +2870,7 @@
       </c>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2856,7 +2885,7 @@
       </c>
       <c r="G25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -2871,7 +2900,7 @@
       </c>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
@@ -2888,7 +2917,7 @@
       </c>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -2905,7 +2934,7 @@
       </c>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -2920,7 +2949,7 @@
       </c>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>14</v>
       </c>
@@ -2939,7 +2968,7 @@
       </c>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:7" ht="409.5" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>442</v>
       </c>
@@ -2958,12 +2987,12 @@
       </c>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>478</v>
@@ -2977,11 +3006,13 @@
       </c>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="17" t="s">
+        <v>523</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="15"/>
@@ -2990,11 +3021,13 @@
       </c>
       <c r="G33" s="25"/>
     </row>
-    <row r="34" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>524</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="15"/>
@@ -3003,11 +3036,13 @@
       </c>
       <c r="G34" s="25"/>
     </row>
-    <row r="35" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="17" t="s">
+        <v>498</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="15"/>
@@ -3016,11 +3051,13 @@
       </c>
       <c r="G35" s="25"/>
     </row>
-    <row r="36" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="17" t="s">
+        <v>499</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="15"/>
@@ -3029,11 +3066,13 @@
       </c>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="17">
+        <v>93010</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="15"/>
@@ -3042,11 +3081,13 @@
       </c>
       <c r="G37" s="25"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="16" t="s">
+        <v>525</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="15"/>
@@ -3055,11 +3096,13 @@
       </c>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="16" t="s">
+        <v>526</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3068,11 +3111,13 @@
       </c>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="16" t="s">
+        <v>507</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
         <v>11</v>
@@ -3083,11 +3128,13 @@
       </c>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="16" t="s">
+        <v>528</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
         <v>13</v>
@@ -3098,7 +3145,7 @@
       </c>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:7" ht="73.2" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>80</v>
       </c>
@@ -3117,7 +3164,7 @@
       </c>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:7" ht="208.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:7" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>481</v>
       </c>
@@ -3138,7 +3185,7 @@
       </c>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:7" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>82</v>
       </c>
@@ -3157,7 +3204,7 @@
       </c>
       <c r="G44" s="25"/>
     </row>
-    <row r="45" spans="1:7" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>83</v>
       </c>
@@ -3178,7 +3225,7 @@
       </c>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:7" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>480</v>
       </c>
@@ -3199,7 +3246,7 @@
       </c>
       <c r="G46" s="25"/>
     </row>
-    <row r="47" spans="1:7" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>135</v>
       </c>
@@ -3220,7 +3267,7 @@
       </c>
       <c r="G47" s="27"/>
     </row>
-    <row r="48" spans="1:7" ht="201.3" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:7" ht="225" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>482</v>
       </c>
@@ -3241,7 +3288,7 @@
       </c>
       <c r="G48" s="27"/>
     </row>
-    <row r="49" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
         <v>85</v>
       </c>
@@ -3260,7 +3307,7 @@
       </c>
       <c r="G49" s="25"/>
     </row>
-    <row r="50" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>86</v>
       </c>
@@ -3279,7 +3326,7 @@
       </c>
       <c r="G50" s="25"/>
     </row>
-    <row r="51" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>87</v>
       </c>
@@ -3298,7 +3345,7 @@
       </c>
       <c r="G51" s="25"/>
     </row>
-    <row r="52" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>88</v>
       </c>
@@ -3317,7 +3364,7 @@
       </c>
       <c r="G52" s="25"/>
     </row>
-    <row r="53" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A53" s="23" t="s">
         <v>89</v>
       </c>
@@ -3336,7 +3383,7 @@
       </c>
       <c r="G53" s="25"/>
     </row>
-    <row r="54" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>90</v>
       </c>
@@ -3353,7 +3400,7 @@
       </c>
       <c r="G54" s="25"/>
     </row>
-    <row r="55" spans="1:7" ht="183" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:7" ht="206.25" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>132</v>
       </c>
@@ -3372,7 +3419,7 @@
       </c>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>91</v>
       </c>
@@ -3391,7 +3438,7 @@
       </c>
       <c r="G56" s="25"/>
     </row>
-    <row r="57" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
         <v>92</v>
       </c>
@@ -3410,7 +3457,7 @@
       </c>
       <c r="G57" s="25"/>
     </row>
-    <row r="58" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>168</v>
       </c>
@@ -3423,7 +3470,7 @@
       </c>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="1:7" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>93</v>
       </c>
@@ -3442,7 +3489,7 @@
       </c>
       <c r="G59" s="25"/>
     </row>
-    <row r="60" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A60" s="23" t="s">
         <v>94</v>
       </c>
@@ -3461,7 +3508,7 @@
       </c>
       <c r="G60" s="25"/>
     </row>
-    <row r="61" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
         <v>95</v>
       </c>
@@ -3480,7 +3527,7 @@
       </c>
       <c r="G61" s="25"/>
     </row>
-    <row r="62" spans="1:7" ht="73.2" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>96</v>
       </c>
@@ -3499,7 +3546,7 @@
       </c>
       <c r="G62" s="25"/>
     </row>
-    <row r="63" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23" t="s">
         <v>483</v>
       </c>
@@ -3520,7 +3567,7 @@
       </c>
       <c r="G63" s="25"/>
     </row>
-    <row r="64" spans="1:7" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A64" s="23" t="s">
         <v>57</v>
       </c>
@@ -3541,7 +3588,7 @@
       </c>
       <c r="G64" s="25"/>
     </row>
-    <row r="65" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>484</v>
       </c>
@@ -3562,7 +3609,7 @@
       </c>
       <c r="G65" s="25"/>
     </row>
-    <row r="66" spans="1:7" ht="73.2" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A66" s="23" t="s">
         <v>137</v>
       </c>
@@ -3581,7 +3628,7 @@
       </c>
       <c r="G66" s="25"/>
     </row>
-    <row r="67" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>138</v>
       </c>
@@ -3600,7 +3647,7 @@
       </c>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="1:7" ht="146.4" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:7" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>133</v>
       </c>
@@ -3619,94 +3666,94 @@
       </c>
       <c r="G68" s="25"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G69" s="25"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G70" s="25"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G71" s="25"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G72" s="25"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G73" s="25"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G74" s="25"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G75" s="25"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G76" s="25"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G77" s="25"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G78" s="25"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G79" s="25"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G80" s="25"/>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G81" s="25"/>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G82" s="25"/>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G83" s="25"/>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G84" s="25"/>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G85" s="25"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G86" s="25"/>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G87" s="25"/>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G88" s="25"/>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G89" s="25"/>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G90" s="25"/>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G91" s="25"/>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G92" s="25"/>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G93" s="25"/>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G94" s="25"/>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G95" s="25"/>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G96" s="25"/>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G97" s="25"/>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.7">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G98" s="25"/>
     </row>
   </sheetData>
@@ -3727,21 +3774,21 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.89453125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="31.578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="41.734375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="35.734375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="42.89453125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="46.26171875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="22" customWidth="1"/>
     <col min="7" max="7" width="87" style="14" customWidth="1"/>
-    <col min="8" max="8" width="47.734375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" style="14" customWidth="1"/>
     <col min="9" max="9" width="80" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="8.734375" style="14"/>
+    <col min="10" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="9" t="s">
         <v>461</v>
@@ -3762,7 +3809,7 @@
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>166</v>
       </c>
@@ -3775,7 +3822,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>97</v>
       </c>
@@ -3796,7 +3843,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
     </row>
-    <row r="4" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>100</v>
       </c>
@@ -3817,7 +3864,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>101</v>
       </c>
@@ -3830,7 +3877,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>102</v>
       </c>
@@ -3843,7 +3890,7 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>103</v>
       </c>
@@ -3856,7 +3903,7 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>104</v>
       </c>
@@ -3869,7 +3916,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>105</v>
       </c>
@@ -3882,7 +3929,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>106</v>
       </c>
@@ -3895,7 +3942,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>107</v>
       </c>
@@ -3908,7 +3955,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>108</v>
       </c>
@@ -3921,7 +3968,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>109</v>
       </c>
@@ -3934,7 +3981,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>98</v>
       </c>
@@ -3957,7 +4004,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>167</v>
       </c>
@@ -3970,7 +4017,7 @@
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" ht="109.8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>59</v>
       </c>
@@ -3993,7 +4040,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>9</v>
       </c>
@@ -4016,7 +4063,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>60</v>
       </c>
@@ -4037,7 +4084,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>99</v>
       </c>
@@ -4060,7 +4107,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>61</v>
       </c>
@@ -4077,7 +4124,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>62</v>
       </c>
@@ -4098,7 +4145,7 @@
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>63</v>
       </c>
@@ -4119,7 +4166,7 @@
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>64</v>
       </c>
@@ -4140,7 +4187,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>65</v>
       </c>
@@ -4159,7 +4206,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
@@ -4174,7 +4221,7 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>67</v>
       </c>
@@ -4189,7 +4236,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>68</v>
       </c>
@@ -4212,7 +4259,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>69</v>
       </c>
@@ -4229,7 +4276,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>70</v>
       </c>
@@ -4248,7 +4295,7 @@
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" ht="409.5" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>14</v>
       </c>
@@ -4271,7 +4318,7 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
         <v>16</v>
       </c>
@@ -4294,7 +4341,7 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>71</v>
       </c>
@@ -4317,7 +4364,7 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>72</v>
       </c>
@@ -4330,7 +4377,7 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>73</v>
       </c>
@@ -4343,7 +4390,7 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>74</v>
       </c>
@@ -4356,7 +4403,7 @@
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>75</v>
       </c>
@@ -4369,7 +4416,7 @@
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>76</v>
       </c>
@@ -4382,7 +4429,7 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>77</v>
       </c>
@@ -4395,7 +4442,7 @@
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
         <v>78</v>
       </c>
@@ -4408,7 +4455,7 @@
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>134</v>
       </c>
@@ -4421,7 +4468,7 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
         <v>79</v>
       </c>
@@ -4434,7 +4481,7 @@
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" ht="128.1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="150" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
         <v>80</v>
       </c>
@@ -4457,7 +4504,7 @@
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
         <v>81</v>
       </c>
@@ -4480,7 +4527,7 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>82</v>
       </c>
@@ -4503,7 +4550,7 @@
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>83</v>
       </c>
@@ -4526,7 +4573,7 @@
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" ht="347.7" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" ht="393.75" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>136</v>
       </c>
@@ -4549,7 +4596,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="1:9" s="26" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" s="26" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>135</v>
       </c>
@@ -4572,7 +4619,7 @@
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
     </row>
-    <row r="48" spans="1:9" s="26" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" s="26" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>84</v>
       </c>
@@ -4595,7 +4642,7 @@
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
         <v>85</v>
       </c>
@@ -4618,7 +4665,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
         <v>86</v>
       </c>
@@ -4641,7 +4688,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
         <v>87</v>
       </c>
@@ -4664,7 +4711,7 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
         <v>88</v>
       </c>
@@ -4687,7 +4734,7 @@
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
         <v>89</v>
       </c>
@@ -4710,7 +4757,7 @@
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
         <v>90</v>
       </c>
@@ -4731,7 +4778,7 @@
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
     </row>
-    <row r="55" spans="1:9" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>132</v>
       </c>
@@ -4754,7 +4801,7 @@
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
         <v>91</v>
       </c>
@@ -4777,7 +4824,7 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
         <v>92</v>
       </c>
@@ -4800,7 +4847,7 @@
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>168</v>
       </c>
@@ -4813,7 +4860,7 @@
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
     </row>
-    <row r="59" spans="1:9" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
         <v>93</v>
       </c>
@@ -4836,7 +4883,7 @@
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
         <v>94</v>
       </c>
@@ -4859,7 +4906,7 @@
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
         <v>95</v>
       </c>
@@ -4882,7 +4929,7 @@
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
         <v>96</v>
       </c>
@@ -4905,7 +4952,7 @@
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
         <v>56</v>
       </c>
@@ -4926,7 +4973,7 @@
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
         <v>57</v>
       </c>
@@ -4949,7 +4996,7 @@
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
     </row>
-    <row r="65" spans="1:9" ht="73.2" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
         <v>58</v>
       </c>
@@ -4972,7 +5019,7 @@
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
     </row>
-    <row r="66" spans="1:9" ht="95.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
         <v>137</v>
       </c>
@@ -4995,7 +5042,7 @@
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
         <v>138</v>
       </c>
@@ -5018,7 +5065,7 @@
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
     </row>
-    <row r="68" spans="1:9" ht="146.4" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:9" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
         <v>133</v>
       </c>
@@ -5039,152 +5086,152 @@
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.7">
+    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
@@ -5206,14 +5253,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1015625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.3671875" style="40" customWidth="1"/>
-    <col min="3" max="16384" width="8.734375" style="14"/>
+    <col min="1" max="1" width="38.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.42578125" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.3" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:2" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>186</v>
       </c>
@@ -5221,7 +5268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>172</v>
       </c>
@@ -5229,7 +5276,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>460</v>
       </c>
@@ -5237,7 +5284,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>173</v>
       </c>
@@ -5245,7 +5292,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>174</v>
       </c>
@@ -5253,7 +5300,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>175</v>
       </c>
@@ -5261,7 +5308,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>176</v>
       </c>
@@ -5269,7 +5316,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>177</v>
       </c>
@@ -5277,7 +5324,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>179</v>
       </c>
@@ -5285,7 +5332,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>180</v>
       </c>
@@ -5293,7 +5340,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>182</v>
       </c>
@@ -5301,7 +5348,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="54.9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>184</v>
       </c>
@@ -5326,14 +5373,14 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.1015625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="68.734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.734375" style="14"/>
+    <col min="1" max="1" width="90.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>186</v>
       </c>
@@ -5341,529 +5388,529 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="43" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B4" s="15"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B5" s="15"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B6" s="15"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B7" s="15"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B17" s="15"/>
     </row>
-    <row r="18" spans="1:2" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B19" s="15"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B21" s="15"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B23" s="15"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B24" s="15"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B27" s="15"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B28" s="15"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B29" s="15"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B30" s="15"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B31" s="15"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B32" s="15"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B33" s="15"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B35" s="15"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B36" s="15"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B37" s="15"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B39" s="15"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B41" s="15"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B42" s="15"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B45" s="15"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B46" s="15"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B47" s="15"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B49" s="15"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B50" s="15"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B51" s="15"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B52" s="15"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B53" s="15"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B59" s="15"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B62" s="15"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B63" s="15"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B65" s="15"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B66" s="15"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B72" s="15"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B79" s="15"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B81" s="15"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B82" s="15"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B83" s="15"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B84" s="15"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B85" s="15"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B86" s="15"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B87" s="15"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B88" s="15"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="15"/>
     </row>
@@ -5883,14 +5930,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="18.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.734375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="82.62890625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.26171875" style="40"/>
+    <col min="1" max="1" width="45.7109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>186</v>
       </c>
@@ -5898,7 +5945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>275</v>
       </c>
@@ -5906,7 +5953,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>276</v>
       </c>
@@ -5914,7 +5961,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>277</v>
       </c>
@@ -5922,7 +5969,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>486</v>
       </c>
@@ -5930,7 +5977,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="73.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>278</v>
       </c>
@@ -5938,7 +5985,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>279</v>
       </c>
@@ -5946,7 +5993,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="73.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>280</v>
       </c>
@@ -5954,7 +6001,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="73.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>281</v>
       </c>
@@ -5962,7 +6009,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>282</v>
       </c>
@@ -5970,7 +6017,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>283</v>
       </c>
@@ -5978,7 +6025,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>284</v>
       </c>
@@ -5986,7 +6033,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="73.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>285</v>
       </c>
@@ -5994,7 +6041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>286</v>
       </c>
@@ -6002,7 +6049,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>287</v>
       </c>
@@ -6010,7 +6057,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="73.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>288</v>
       </c>
@@ -6018,7 +6065,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="91.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>289</v>
       </c>
@@ -6026,7 +6073,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>290</v>
       </c>
@@ -6034,7 +6081,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="54.9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>291</v>
       </c>
@@ -6042,7 +6089,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="91.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>292</v>
       </c>
@@ -6063,14 +6110,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="18.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7890625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="74.47265625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.26171875" style="8"/>
+    <col min="1" max="1" width="28.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>186</v>
       </c>
@@ -6078,7 +6125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>315</v>
       </c>
@@ -6086,7 +6133,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>316</v>
       </c>
@@ -6094,7 +6141,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>317</v>
       </c>
@@ -6102,7 +6149,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>319</v>
       </c>
@@ -6110,7 +6157,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>318</v>
       </c>
@@ -6131,14 +6178,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="18.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5234375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="74.3671875" style="46" customWidth="1"/>
-    <col min="3" max="16384" width="9.26171875" style="46"/>
+    <col min="1" max="1" width="28.5703125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="46" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>331</v>
       </c>
@@ -6146,7 +6193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>339</v>
       </c>
@@ -6154,7 +6201,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>338</v>
       </c>
@@ -6162,7 +6209,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>335</v>
       </c>
@@ -6170,7 +6217,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>336</v>
       </c>
@@ -6178,7 +6225,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>337</v>
       </c>

--- a/manuscript/ESPISDataDictionary_ADRIFT.Rankin_G14M20PG00013.xlsx
+++ b/manuscript/ESPISDataDictionary_ADRIFT.Rankin_G14M20PG00013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\BOEM\1. BOEM BUCKETS\1D(1) Contract Grant Monitoring Files\M20PG00013 PC-20-04 ADRIFT\Deliverables\Final Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58FDA7F-6716-43AC-A7CB-F8DBB68B2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560D5B85-2662-47A5-858C-FD9469691D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0AD91D4B-0170-4328-A300-C07BE663CFFF}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0AD91D4B-0170-4328-A300-C07BE663CFFF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Generated using https://www.uuidgenerator.net/version4</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="530">
   <si>
     <t xml:space="preserve">fileIdentifier </t>
   </si>
@@ -1710,12 +1728,15 @@
   <si>
     <t>Biologist</t>
   </si>
+  <si>
+    <t>a1063c71-16f8-4026-a1af-327e8c745d9f</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,6 +1825,12 @@
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1929,7 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2067,6 +2094,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2083,6 +2113,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Reeb, Desray" id="{F2E386D4-440A-4B79-92E6-E078DEC06839}" userId="S::reebd@mms.gov::206db023-ef97-4f5d-aa3a-fb0394ad61be" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2370,6 +2406,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2024-10-08T23:01:27.62" personId="{F2E386D4-440A-4B79-92E6-E078DEC06839}" id="{0AD91D4B-0170-4328-A300-C07BE663CFFF}">
+    <text>Generated using https://www.uuidgenerator.net/version4</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>3152194323</xltc2:checksum>
+        <xltc2:hyperlink startIndex="16" length="38" url="https://www.uuidgenerator.net/version4"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
@@ -2454,12 +2504,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2512,7 +2562,9 @@
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="59" t="s">
+        <v>529</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2719,7 +2771,7 @@
       </c>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -2934,7 +2986,7 @@
       </c>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -3145,7 +3197,7 @@
       </c>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>80</v>
       </c>
@@ -3225,7 +3277,7 @@
       </c>
       <c r="G45" s="25"/>
     </row>
-    <row r="46" spans="1:7" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>480</v>
       </c>
@@ -3470,7 +3522,7 @@
       </c>
       <c r="G58" s="25"/>
     </row>
-    <row r="59" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
         <v>93</v>
       </c>
@@ -3647,7 +3699,7 @@
       </c>
       <c r="G67" s="25"/>
     </row>
-    <row r="68" spans="1:7" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>133</v>
       </c>
@@ -3762,6 +3814,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
